--- a/PROJECTS/Project Planning/GANTT-Chart_TINF20C_OMLOX_Team3.xlsx
+++ b/PROJECTS/Project Planning/GANTT-Chart_TINF20C_OMLOX_Team3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AA17E3A5-99D0-4697-8D6F-DFD3EA1C2502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6336318-EBFE-488D-A655-F2DC7793F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -590,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +830,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -1103,7 +1109,7 @@
     <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1306,6 +1312,19 @@
     <xf numFmtId="169" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1318,18 +1337,8 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1594,10 +1603,10 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFC0C0C0"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
-      <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
@@ -1940,9 +1949,9 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1989,340 +1998,340 @@
       <c r="B3" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="75">
+      <c r="D3" s="74"/>
+      <c r="E3" s="80">
         <v>44449</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="72">
+        <v>28</v>
+      </c>
+      <c r="I4" s="77">
         <f>I5</f>
-        <v>44473</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="72">
+        <v>44634</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="77">
         <f>P5</f>
-        <v>44480</v>
-      </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="72">
+        <v>44641</v>
+      </c>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="77">
         <f>W5</f>
-        <v>44487</v>
-      </c>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="72">
+        <v>44648</v>
+      </c>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="77">
         <f>AD5</f>
-        <v>44494</v>
-      </c>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="72">
+        <v>44655</v>
+      </c>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="77">
         <f>AK5</f>
-        <v>44501</v>
-      </c>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="72">
+        <v>44662</v>
+      </c>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="77">
         <f>AR5</f>
-        <v>44508</v>
-      </c>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="72">
+        <v>44669</v>
+      </c>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="77">
         <f>AY5</f>
-        <v>44515</v>
-      </c>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="72">
+        <v>44676</v>
+      </c>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="77">
         <f>BF5</f>
-        <v>44522</v>
-      </c>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="74"/>
+        <v>44683</v>
+      </c>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="79"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="I5" s="69">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44473</v>
+        <v>44634</v>
       </c>
       <c r="J5" s="70">
         <f>I5+1</f>
-        <v>44474</v>
+        <v>44635</v>
       </c>
       <c r="K5" s="70">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44475</v>
+        <v>44636</v>
       </c>
       <c r="L5" s="70">
         <f t="shared" si="0"/>
-        <v>44476</v>
+        <v>44637</v>
       </c>
       <c r="M5" s="70">
         <f t="shared" si="0"/>
-        <v>44477</v>
+        <v>44638</v>
       </c>
       <c r="N5" s="70">
         <f t="shared" si="0"/>
-        <v>44478</v>
+        <v>44639</v>
       </c>
       <c r="O5" s="71">
         <f t="shared" si="0"/>
-        <v>44479</v>
+        <v>44640</v>
       </c>
       <c r="P5" s="69">
         <f>O5+1</f>
-        <v>44480</v>
+        <v>44641</v>
       </c>
       <c r="Q5" s="70">
         <f>P5+1</f>
-        <v>44481</v>
+        <v>44642</v>
       </c>
       <c r="R5" s="70">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>44643</v>
       </c>
       <c r="S5" s="70">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>44644</v>
       </c>
       <c r="T5" s="70">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>44645</v>
       </c>
       <c r="U5" s="70">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>44646</v>
       </c>
       <c r="V5" s="71">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>44647</v>
       </c>
       <c r="W5" s="69">
         <f>V5+1</f>
-        <v>44487</v>
+        <v>44648</v>
       </c>
       <c r="X5" s="70">
         <f>W5+1</f>
-        <v>44488</v>
+        <v>44649</v>
       </c>
       <c r="Y5" s="70">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>44650</v>
       </c>
       <c r="Z5" s="70">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>44651</v>
       </c>
       <c r="AA5" s="70">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>44652</v>
       </c>
       <c r="AB5" s="70">
         <f t="shared" si="0"/>
-        <v>44492</v>
+        <v>44653</v>
       </c>
       <c r="AC5" s="71">
         <f t="shared" si="0"/>
-        <v>44493</v>
+        <v>44654</v>
       </c>
       <c r="AD5" s="69">
         <f>AC5+1</f>
-        <v>44494</v>
+        <v>44655</v>
       </c>
       <c r="AE5" s="70">
         <f>AD5+1</f>
-        <v>44495</v>
+        <v>44656</v>
       </c>
       <c r="AF5" s="70">
         <f t="shared" si="0"/>
-        <v>44496</v>
+        <v>44657</v>
       </c>
       <c r="AG5" s="70">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>44658</v>
       </c>
       <c r="AH5" s="70">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>44659</v>
       </c>
       <c r="AI5" s="70">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>44660</v>
       </c>
       <c r="AJ5" s="71">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>44661</v>
       </c>
       <c r="AK5" s="69">
         <f>AJ5+1</f>
-        <v>44501</v>
+        <v>44662</v>
       </c>
       <c r="AL5" s="70">
         <f>AK5+1</f>
-        <v>44502</v>
+        <v>44663</v>
       </c>
       <c r="AM5" s="70">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44664</v>
       </c>
       <c r="AN5" s="70">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44665</v>
       </c>
       <c r="AO5" s="70">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44666</v>
       </c>
       <c r="AP5" s="70">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44667</v>
       </c>
       <c r="AQ5" s="71">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44668</v>
       </c>
       <c r="AR5" s="69">
         <f>AQ5+1</f>
-        <v>44508</v>
+        <v>44669</v>
       </c>
       <c r="AS5" s="70">
         <f>AR5+1</f>
-        <v>44509</v>
+        <v>44670</v>
       </c>
       <c r="AT5" s="70">
         <f t="shared" si="0"/>
-        <v>44510</v>
+        <v>44671</v>
       </c>
       <c r="AU5" s="70">
         <f t="shared" si="0"/>
-        <v>44511</v>
+        <v>44672</v>
       </c>
       <c r="AV5" s="70">
         <f t="shared" si="0"/>
-        <v>44512</v>
+        <v>44673</v>
       </c>
       <c r="AW5" s="70">
         <f t="shared" si="0"/>
-        <v>44513</v>
+        <v>44674</v>
       </c>
       <c r="AX5" s="71">
         <f t="shared" si="0"/>
-        <v>44514</v>
+        <v>44675</v>
       </c>
       <c r="AY5" s="69">
         <f>AX5+1</f>
-        <v>44515</v>
+        <v>44676</v>
       </c>
       <c r="AZ5" s="70">
         <f>AY5+1</f>
-        <v>44516</v>
+        <v>44677</v>
       </c>
       <c r="BA5" s="70">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44517</v>
+        <v>44678</v>
       </c>
       <c r="BB5" s="70">
         <f t="shared" si="1"/>
-        <v>44518</v>
+        <v>44679</v>
       </c>
       <c r="BC5" s="70">
         <f t="shared" si="1"/>
-        <v>44519</v>
+        <v>44680</v>
       </c>
       <c r="BD5" s="70">
         <f t="shared" si="1"/>
-        <v>44520</v>
+        <v>44681</v>
       </c>
       <c r="BE5" s="71">
         <f t="shared" si="1"/>
-        <v>44521</v>
+        <v>44682</v>
       </c>
       <c r="BF5" s="69">
         <f>BE5+1</f>
-        <v>44522</v>
+        <v>44683</v>
       </c>
       <c r="BG5" s="70">
         <f>BF5+1</f>
-        <v>44523</v>
+        <v>44684</v>
       </c>
       <c r="BH5" s="70">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44524</v>
+        <v>44685</v>
       </c>
       <c r="BI5" s="70">
         <f t="shared" si="2"/>
-        <v>44525</v>
+        <v>44686</v>
       </c>
       <c r="BJ5" s="70">
         <f t="shared" si="2"/>
-        <v>44526</v>
+        <v>44687</v>
       </c>
       <c r="BK5" s="70">
         <f t="shared" si="2"/>
-        <v>44527</v>
+        <v>44688</v>
       </c>
       <c r="BL5" s="71">
         <f t="shared" si="2"/>
-        <v>44528</v>
+        <v>44689</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2477,7 +2486,7 @@
         <v>D</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" ref="AO6:BT6" si="4">LEFT(TEXT(AO5,"TTT"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"TTT"),1)</f>
         <v>F</v>
       </c>
       <c r="AP6" s="10" t="str">
@@ -3520,10 +3529,10 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="80">
+      <c r="E19" s="72">
         <v>44491</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="72">
         <v>44512</v>
       </c>
       <c r="G19" s="14"/>
@@ -4233,7 +4242,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="65">
         <f>F27</f>
@@ -4468,7 +4477,7 @@
         <v>64</v>
       </c>
       <c r="D31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -4477,34 +4486,34 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
       <c r="AK31" s="27"/>
       <c r="AL31" s="27"/>
       <c r="AM31" s="27"/>
@@ -4543,7 +4552,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -4573,13 +4582,13 @@
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
       <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
       <c r="AK32" s="27"/>
       <c r="AL32" s="27"/>
       <c r="AM32" s="27"/>
@@ -4618,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="D33" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -4641,13 +4650,13 @@
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
       <c r="AF33" s="27"/>
@@ -4693,7 +4702,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -4723,20 +4732,20 @@
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
       <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27"/>
-      <c r="AQ34" s="27"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="81"/>
+      <c r="AP34" s="81"/>
+      <c r="AQ34" s="81"/>
       <c r="AR34" s="27"/>
       <c r="AS34" s="27"/>
       <c r="AT34" s="27"/>
@@ -4768,7 +4777,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -4802,13 +4811,13 @@
       <c r="AH35" s="27"/>
       <c r="AI35" s="27"/>
       <c r="AJ35" s="27"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="27"/>
-      <c r="AP35" s="27"/>
-      <c r="AQ35" s="27"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="81"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="81"/>
+      <c r="AO35" s="81"/>
+      <c r="AP35" s="81"/>
+      <c r="AQ35" s="81"/>
       <c r="AR35" s="27"/>
       <c r="AS35" s="27"/>
       <c r="AT35" s="27"/>
@@ -4840,7 +4849,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -4881,13 +4890,13 @@
       <c r="AO36" s="27"/>
       <c r="AP36" s="27"/>
       <c r="AQ36" s="27"/>
-      <c r="AR36" s="27"/>
-      <c r="AS36" s="27"/>
-      <c r="AT36" s="27"/>
-      <c r="AU36" s="27"/>
-      <c r="AV36" s="27"/>
-      <c r="AW36" s="27"/>
-      <c r="AX36" s="27"/>
+      <c r="AR36" s="81"/>
+      <c r="AS36" s="81"/>
+      <c r="AT36" s="81"/>
+      <c r="AU36" s="81"/>
+      <c r="AV36" s="81"/>
+      <c r="AW36" s="81"/>
+      <c r="AX36" s="81"/>
       <c r="AY36" s="27"/>
       <c r="AZ36" s="27"/>
       <c r="BA36" s="27"/>
@@ -4912,7 +4921,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -4960,14 +4969,14 @@
       <c r="AV37" s="27"/>
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
-      <c r="AY37" s="27"/>
-      <c r="AZ37" s="27"/>
-      <c r="BA37" s="27"/>
-      <c r="BB37" s="27"/>
-      <c r="BC37" s="27"/>
-      <c r="BD37" s="27"/>
-      <c r="BE37" s="27"/>
-      <c r="BF37" s="27"/>
+      <c r="AY37" s="81"/>
+      <c r="AZ37" s="81"/>
+      <c r="BA37" s="81"/>
+      <c r="BB37" s="81"/>
+      <c r="BC37" s="81"/>
+      <c r="BD37" s="81"/>
+      <c r="BE37" s="81"/>
+      <c r="BF37" s="81"/>
       <c r="BG37" s="27"/>
       <c r="BH37" s="27"/>
       <c r="BI37" s="27"/>
@@ -4984,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="D38" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -5040,12 +5049,12 @@
       <c r="BD38" s="27"/>
       <c r="BE38" s="27"/>
       <c r="BF38" s="27"/>
-      <c r="BG38" s="27"/>
-      <c r="BH38" s="27"/>
-      <c r="BI38" s="27"/>
-      <c r="BJ38" s="27"/>
-      <c r="BK38" s="27"/>
-      <c r="BL38" s="27"/>
+      <c r="BG38" s="81"/>
+      <c r="BH38" s="81"/>
+      <c r="BI38" s="81"/>
+      <c r="BJ38" s="81"/>
+      <c r="BK38" s="81"/>
+      <c r="BL38" s="81"/>
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
@@ -5619,11 +5628,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5631,6 +5635,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D45:D46 D7:D18 D20:D38">
     <cfRule type="dataBar" priority="14">
